--- a/sfbic_model.xlsx
+++ b/sfbic_model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">LogLikelihood</t>
   </si>
@@ -65,25 +65,31 @@
     <t xml:space="preserve">`De forma geral, como você avalia o nível de suporte recebido do seu orientador durante a realização de sua dissertação/tese de pós-graduação?`</t>
   </si>
   <si>
-    <t xml:space="preserve">`Você recebeu bolsa de estudos ou auxílio financeiro durante o curso de pós-graduação? Se sim, por quanto tempo? Sim...76`</t>
+    <t xml:space="preserve">`Em que ano você iniciou seu último curso de pós-graduação stricto sensu na UFMT?`</t>
   </si>
   <si>
     <t xml:space="preserve">`Especifique a natureza da jornada de trabalho durante a pós-graduação_Jornada de tempo integral (acima de 30 horas semanais)`</t>
   </si>
   <si>
+    <t xml:space="preserve">`Como você classificaria seu nível de desempenho acadêmico ao longo do curso de pós-graduação?`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Você fez uso de algum período de prorrogação de prazo para o término do seu curso de pós-graduação? Se sim, qual foi o período de prorrogação utilizado?_Não prorroguei o período de curso`</t>
+  </si>
+  <si>
     <t xml:space="preserve">`Qual a probabilidade de você recomendar esta instituição para futuros estudantes de pós-graduação?`</t>
   </si>
   <si>
-    <t xml:space="preserve">`Como você classificaria seu nível de desempenho acadêmico ao longo do curso de pós-graduação?`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Durante o seu curso de pós-graduação, com que frequência você socializou com colegas em momentos de lanches e refeições?`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Durante o seu curso de pós-graduação, como você classificaria sua intenção de buscar futuras oportunidades educacionais, como doutorado, pós-doutorado ou formações adicionais em sua área?`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Você trancou sua matrícula no programa de pós-graduação? Se sim, por quanto tempo?_Sim`</t>
+    <t xml:space="preserve">`Entre os fatores abaixo, quais você acredita que poderiam ser aprimorados para melhorar significativamente a sua experiência com a instituição? Escolha todos que se aplicam_Integração da instituição com a comunidade local`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Você trancou sua matrícula no programa de pós-graduação? Se sim, por quanto tempo?_Não tranquei a matrícula`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Você trabalhou enquanto estava cursando pós-graduação?_Sim, durante todo o período do curso`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Qual era o rendimento per capita familiar durante o período em que realizou o curso de pós-graduação?_Sem renda`</t>
   </si>
   <si>
     <t xml:space="preserve">OR</t>
@@ -455,31 +461,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-155.78985609668</v>
+        <v>-137.238027615703</v>
       </c>
       <c r="B2" t="n">
-        <v>329.579712193361</v>
+        <v>296.476055231405</v>
       </c>
       <c r="C2" t="n">
-        <v>369.211879974774</v>
+        <v>344.915371408688</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.899006622516556</v>
+        <v>0.91887417218543</v>
       </c>
       <c r="F2" t="n">
-        <v>0.977099236641221</v>
+        <v>0.982824427480916</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.912655971479501</v>
+        <v>0.927927927927928</v>
       </c>
       <c r="I2" t="n">
-        <v>0.720930232558139</v>
+        <v>0.816326530612245</v>
       </c>
     </row>
   </sheetData>
@@ -518,16 +524,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>6.13738015368053</v>
+        <v>-483.631365048737</v>
       </c>
       <c r="C2" t="n">
-        <v>1.06709721294654</v>
+        <v>98.5331784571956</v>
       </c>
       <c r="D2" t="n">
-        <v>5.75147238622578</v>
+        <v>-4.90830979596212</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00000000884695329852818</v>
+        <v>0.000000918646628247724</v>
       </c>
     </row>
     <row r="3">
@@ -535,16 +541,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.662929079972823</v>
+        <v>-0.740910385420564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.128299078560991</v>
+        <v>0.138871581818701</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.16706033596087</v>
+        <v>-5.33521960157287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000000237804513592047</v>
+        <v>0.0000000954289920562034</v>
       </c>
     </row>
     <row r="4">
@@ -552,16 +558,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.10151677099653</v>
+        <v>0.241996372352355</v>
       </c>
       <c r="C4" t="n">
-        <v>0.361910302082998</v>
+        <v>0.0489212881299963</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.04361816907859</v>
+        <v>4.94664759663133</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00233751617521284</v>
+        <v>0.000000755024837734198</v>
       </c>
     </row>
     <row r="5">
@@ -569,16 +575,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>1.15525967591362</v>
+        <v>1.10176160471818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.323606937955454</v>
+        <v>0.36894822209533</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5699471810232</v>
+        <v>2.98622283219324</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000357053214319984</v>
+        <v>0.00282446747986601</v>
       </c>
     </row>
     <row r="6">
@@ -586,16 +592,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.479518790850892</v>
+        <v>-0.69416287492339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.137368280025199</v>
+        <v>0.190754584707591</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.49075340218955</v>
+        <v>-3.63903638797189</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000481660603362624</v>
+        <v>0.000273660132916959</v>
       </c>
     </row>
     <row r="7">
@@ -603,16 +609,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.580940951083345</v>
+        <v>1.18625009595802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.17368141646568</v>
+        <v>0.364845615496839</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.34486534544207</v>
+        <v>3.25137550123113</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000823225274041666</v>
+        <v>0.0011484806284036</v>
       </c>
     </row>
     <row r="8">
@@ -620,16 +626,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.357062782857018</v>
+        <v>-0.399024425782989</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119882460885332</v>
+        <v>0.147475723620061</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.97844055102065</v>
+        <v>-2.7056956629078</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00289719226087155</v>
+        <v>0.00681614808082955</v>
       </c>
     </row>
     <row r="9">
@@ -637,16 +643,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.307786560332716</v>
+        <v>-1.03205147766695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.121229826083984</v>
+        <v>0.346492756061415</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.53886828245957</v>
+        <v>-2.97856581302964</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0111211684494705</v>
+        <v>0.00289600828795056</v>
       </c>
     </row>
     <row r="10">
@@ -654,16 +660,50 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>1.45817590382168</v>
+        <v>-1.36228918171106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.550921331411031</v>
+        <v>0.639050683610116</v>
       </c>
       <c r="D10" t="n">
-        <v>2.64679514239713</v>
+        <v>-2.13173886931039</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00812585619557902</v>
+        <v>0.0330283195513054</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.17656683858954</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.388032612224987</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.03213390194985</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.00242831458431084</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.16559694620862</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7951093615082</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.72364664667111</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00645655443835115</v>
       </c>
     </row>
   </sheetData>
@@ -702,16 +742,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>6.13738015368053</v>
+        <v>-483.631365048737</v>
       </c>
       <c r="C2" t="n">
-        <v>1.06709721294654</v>
+        <v>98.5331784571956</v>
       </c>
       <c r="D2" t="n">
-        <v>5.75147238622578</v>
+        <v>-4.90830979596212</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00000000884695329852818</v>
+        <v>0.000000918646628247724</v>
       </c>
     </row>
     <row r="3">
@@ -719,16 +759,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.662929079972823</v>
+        <v>-0.740910385420564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.128299078560991</v>
+        <v>0.138871581818701</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.16706033596087</v>
+        <v>-5.33521960157287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000000237804513592047</v>
+        <v>0.0000000954289920562034</v>
       </c>
     </row>
     <row r="4">
@@ -736,16 +776,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.10151677099653</v>
+        <v>0.241996372352355</v>
       </c>
       <c r="C4" t="n">
-        <v>0.361910302082998</v>
+        <v>0.0489212881299963</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.04361816907859</v>
+        <v>4.94664759663133</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00233751617521284</v>
+        <v>0.000000755024837734198</v>
       </c>
     </row>
     <row r="5">
@@ -753,16 +793,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>1.15525967591362</v>
+        <v>1.10176160471818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.323606937955454</v>
+        <v>0.36894822209533</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5699471810232</v>
+        <v>2.98622283219324</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000357053214319984</v>
+        <v>0.00282446747986601</v>
       </c>
     </row>
     <row r="6">
@@ -770,16 +810,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.479518790850892</v>
+        <v>-0.69416287492339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.137368280025199</v>
+        <v>0.190754584707591</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.49075340218955</v>
+        <v>-3.63903638797189</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000481660603362624</v>
+        <v>0.000273660132916959</v>
       </c>
     </row>
     <row r="7">
@@ -787,16 +827,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.580940951083345</v>
+        <v>1.18625009595802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.17368141646568</v>
+        <v>0.364845615496839</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.34486534544207</v>
+        <v>3.25137550123113</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000823225274041666</v>
+        <v>0.0011484806284036</v>
       </c>
     </row>
     <row r="8">
@@ -804,16 +844,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.357062782857018</v>
+        <v>-0.399024425782989</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119882460885332</v>
+        <v>0.147475723620061</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.97844055102065</v>
+        <v>-2.7056956629078</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00289719226087155</v>
+        <v>0.00681614808082955</v>
       </c>
     </row>
     <row r="9">
@@ -821,16 +861,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.307786560332716</v>
+        <v>-1.03205147766695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.121229826083984</v>
+        <v>0.346492756061415</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.53886828245957</v>
+        <v>-2.97856581302964</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0111211684494705</v>
+        <v>0.00289600828795056</v>
       </c>
     </row>
     <row r="10">
@@ -838,16 +878,50 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>1.45817590382168</v>
+        <v>-1.36228918171106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.550921331411031</v>
+        <v>0.639050683610116</v>
       </c>
       <c r="D10" t="n">
-        <v>2.64679514239713</v>
+        <v>-2.13173886931039</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00812585619557902</v>
+        <v>0.0330283195513054</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.17656683858954</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.388032612224987</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.03213390194985</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.00242831458431084</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.16559694620862</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7951093615082</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.72364664667111</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00645655443835115</v>
       </c>
     </row>
   </sheetData>
@@ -872,13 +946,13 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -886,16 +960,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>6.13738015368053</v>
+        <v>-483.631365048737</v>
       </c>
       <c r="C2" t="n">
-        <v>462.839412967624</v>
+        <v>9.15307211314962e-211</v>
       </c>
       <c r="D2" t="n">
-        <v>61.526706034904</v>
+        <v>1.90222172835705e-299</v>
       </c>
       <c r="E2" t="n">
-        <v>4089.29171432973</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000206338816366649</v>
       </c>
     </row>
     <row r="3">
@@ -903,16 +977,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.662929079972823</v>
+        <v>-0.740910385420564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.515339650601209</v>
+        <v>0.476679755624802</v>
       </c>
       <c r="D3" t="n">
-        <v>0.398188313015664</v>
+        <v>0.359849743497069</v>
       </c>
       <c r="E3" t="n">
-        <v>0.659629140687522</v>
+        <v>0.621736088940748</v>
       </c>
     </row>
     <row r="4">
@@ -920,16 +994,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.10151677099653</v>
+        <v>0.241996372352355</v>
       </c>
       <c r="C4" t="n">
-        <v>0.332366577199876</v>
+        <v>1.27378957194807</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159433965399199</v>
+        <v>1.16333873081158</v>
       </c>
       <c r="E4" t="n">
-        <v>0.663258812284634</v>
+        <v>1.40972367943797</v>
       </c>
     </row>
     <row r="5">
@@ -937,16 +1011,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>1.15525967591362</v>
+        <v>1.10176160471818</v>
       </c>
       <c r="C5" t="n">
-        <v>3.17484774198238</v>
+        <v>3.00946284106764</v>
       </c>
       <c r="D5" t="n">
-        <v>1.70192949224781</v>
+        <v>1.4771315389662</v>
       </c>
       <c r="E5" t="n">
-        <v>6.08336837859425</v>
+        <v>6.3118769063912</v>
       </c>
     </row>
     <row r="6">
@@ -954,16 +1028,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.479518790850892</v>
+        <v>-0.69416287492339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.619081227690523</v>
+        <v>0.499492410639741</v>
       </c>
       <c r="D6" t="n">
-        <v>0.470751986490412</v>
+        <v>0.339532268659008</v>
       </c>
       <c r="E6" t="n">
-        <v>0.808108726690854</v>
+        <v>0.719448809242678</v>
       </c>
     </row>
     <row r="7">
@@ -971,16 +1045,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.580940951083345</v>
+        <v>1.18625009595802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.559371777377006</v>
+        <v>3.27477805052307</v>
       </c>
       <c r="D7" t="n">
-        <v>0.394111159050609</v>
+        <v>1.64274211448891</v>
       </c>
       <c r="E7" t="n">
-        <v>0.780605086950182</v>
+        <v>6.91849053657683</v>
       </c>
     </row>
     <row r="8">
@@ -988,16 +1062,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.357062782857018</v>
+        <v>-0.399024425782989</v>
       </c>
       <c r="C8" t="n">
-        <v>0.699728565397054</v>
+        <v>0.670974312080348</v>
       </c>
       <c r="D8" t="n">
-        <v>0.551444497338897</v>
+        <v>0.500369401550011</v>
       </c>
       <c r="E8" t="n">
-        <v>0.883648481911954</v>
+        <v>0.893952632236859</v>
       </c>
     </row>
     <row r="9">
@@ -1005,16 +1079,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.307786560332716</v>
+        <v>-1.03205147766695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.735072194831299</v>
+        <v>0.356275319491855</v>
       </c>
       <c r="D9" t="n">
-        <v>0.574472070299049</v>
+        <v>0.176167584306328</v>
       </c>
       <c r="E9" t="n">
-        <v>0.925550728972736</v>
+        <v>0.689301019377057</v>
       </c>
     </row>
     <row r="10">
@@ -1022,16 +1096,50 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>1.45817590382168</v>
+        <v>-1.36228918171106</v>
       </c>
       <c r="C10" t="n">
-        <v>4.29811220333919</v>
+        <v>0.25607390578067</v>
       </c>
       <c r="D10" t="n">
-        <v>1.44092714220046</v>
+        <v>0.0717735812157048</v>
       </c>
       <c r="E10" t="n">
-        <v>12.6642150229733</v>
+        <v>0.88878763739367</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.17656683858954</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.2432205680308</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.53947300053348</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.09912922572255</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.16559694620862</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.71980561843554</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.72554246231028</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40.6800152608079</v>
       </c>
     </row>
   </sheetData>
